--- a/DP Calculator/DP Pixel Calculator.xlsx
+++ b/DP Calculator/DP Pixel Calculator.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncara\OneDrive\TPCWare\Dev Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MobileResourceGenerator\DP Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{4A4EF2B8-C3C7-421A-8766-224CA0F2B403}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{B0CBA40A-FAC3-431F-8251-393FA9203912}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB80435-2A26-4457-9410-7E62FD95FB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935" tabRatio="242" xr2:uid="{38F394F4-C034-4787-BA4D-0025614C5833}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="242" xr2:uid="{38F394F4-C034-4787-BA4D-0025614C5833}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,8 +133,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -280,87 +288,87 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF57FF58-33AB-4687-BE5C-81CC6247E5B7}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,51 +1418,51 @@
       <c r="C18"/>
       <c r="D18" s="24">
         <f>K18*$D$5/$D$6</f>
-        <v>24.45</v>
+        <v>110.02500000000001</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="6">
         <f>D18</f>
-        <v>24.45</v>
+        <v>110.02500000000001</v>
       </c>
       <c r="G18" s="10">
         <f>D18*2</f>
-        <v>48.9</v>
+        <v>220.05</v>
       </c>
       <c r="H18" s="7">
         <f>3*D18</f>
-        <v>73.349999999999994</v>
+        <v>330.07500000000005</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="34">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="L18" s="6">
         <f>$K18*L$8/$D$6</f>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" ref="M18:Q19" si="1">$K18*M$8/$D$6</f>
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1464,51 +1472,51 @@
       <c r="C19"/>
       <c r="D19" s="24">
         <f>K19*$D$5/$D$6</f>
-        <v>24.45</v>
+        <v>110.02500000000001</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="6">
         <f>D19</f>
-        <v>24.45</v>
+        <v>110.02500000000001</v>
       </c>
       <c r="G19" s="10">
         <f>D19*2</f>
-        <v>48.9</v>
+        <v>220.05</v>
       </c>
       <c r="H19" s="7">
         <f>3*D19</f>
-        <v>73.349999999999994</v>
+        <v>330.07500000000005</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="36">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="L19" s="6">
         <f>$K19*L$8/$D$6</f>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
